--- a/input/InputDuplicateFLS.xlsx
+++ b/input/InputDuplicateFLS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Name Acc</t>
   </si>
@@ -70,16 +70,13 @@
   </si>
   <si>
     <t>ACC-TIKTOK-8175-Thiet</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,6 +88,14 @@
       <sz val="10"/>
       <color rgb="FF01162B"/>
       <name val="GoogleSans-Regular"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -110,10 +115,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -133,8 +139,12 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -413,13 +423,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -464,19 +474,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" ht="30">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="5" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>7</v>
@@ -491,8 +501,14 @@
         <v>45916.645833333336</v>
       </c>
     </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>